--- a/VerveStacks_ISL/SysSettings.xlsx
+++ b/VerveStacks_ISL/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCDD8BF-E7F7-4BA5-ABEE-D8610EE66AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AD1673-B9FB-4EF9-BC62-E62673386C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SysSettings.xlsx
+++ b/VerveStacks_ISL/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AD1673-B9FB-4EF9-BC62-E62673386C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48641625-4119-4DB5-AC89-32CFDE1E3456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SysSettings.xlsx
+++ b/VerveStacks_ISL/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48641625-4119-4DB5-AC89-32CFDE1E3456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A401D4BE-C8C8-4711-A0B0-2C8908522783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SysSettings.xlsx
+++ b/VerveStacks_ISL/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A401D4BE-C8C8-4711-A0B0-2C8908522783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63A25B2-BBB3-4D01-ABEE-9E5DA67D1B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SysSettings.xlsx
+++ b/VerveStacks_ISL/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63A25B2-BBB3-4D01-ABEE-9E5DA67D1B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D01B361-462E-46C0-AB30-812B6139F10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SysSettings.xlsx
+++ b/VerveStacks_ISL/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D01B361-462E-46C0-AB30-812B6139F10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2621F22D-BB16-45A6-B94C-1FF92442954C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SysSettings.xlsx
+++ b/VerveStacks_ISL/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2621F22D-BB16-45A6-B94C-1FF92442954C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E752F4-785F-4D3C-AD73-5224C326E6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SysSettings.xlsx
+++ b/VerveStacks_ISL/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E752F4-785F-4D3C-AD73-5224C326E6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A92AA84-B215-46EB-A574-AA693FF0ED4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SysSettings.xlsx
+++ b/VerveStacks_ISL/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A92AA84-B215-46EB-A574-AA693FF0ED4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09526BA1-CE07-47D0-AE34-DE4C1EC25DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SysSettings.xlsx
+++ b/VerveStacks_ISL/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09526BA1-CE07-47D0-AE34-DE4C1EC25DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E39344-DDD4-4AAF-AFEC-7F523F1A2D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SysSettings.xlsx
+++ b/VerveStacks_ISL/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E39344-DDD4-4AAF-AFEC-7F523F1A2D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E202B97E-6CB9-4F68-8FFB-FE07442CACA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SysSettings.xlsx
+++ b/VerveStacks_ISL/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E202B97E-6CB9-4F68-8FFB-FE07442CACA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2543B9A-5BE7-4BEE-8477-7269F8944F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SysSettings.xlsx
+++ b/VerveStacks_ISL/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2543B9A-5BE7-4BEE-8477-7269F8944F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA11060D-4989-409F-9CBB-0047C2852E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SysSettings.xlsx
+++ b/VerveStacks_ISL/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA11060D-4989-409F-9CBB-0047C2852E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7ED90AC-C0E6-4875-B6D5-4E7324FEEEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
